--- a/bin/sheets/main_db/teams/AFG/PlayerPerformance_3665.xlsx
+++ b/bin/sheets/main_db/teams/AFG/PlayerPerformance_3665.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3665</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mohammad Nabi</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Off Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2964</t>
+          <t>2964</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3007</t>
+          <t>3007</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3008</t>
+          <t>3008</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -660,7 +725,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3087</t>
+          <t>3087</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -712,7 +777,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3089</t>
+          <t>3089</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -764,7 +829,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3135</t>
+          <t>3135</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -816,7 +881,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3138</t>
+          <t>3138</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -868,7 +933,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3142</t>
+          <t>3142</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -908,7 +973,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>07/07/2010</t>
@@ -916,7 +980,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3147</t>
+          <t>3147</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -968,7 +1032,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3149</t>
+          <t>3149</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1020,7 +1084,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3153</t>
+          <t>3153</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1060,7 +1124,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>16/08/2010</t>
@@ -1068,7 +1131,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3164</t>
+          <t>3164</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1120,7 +1183,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3166</t>
+          <t>3166</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1172,7 +1235,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3183</t>
+          <t>3183</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1224,7 +1287,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3185</t>
+          <t>3185</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1276,7 +1339,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3187</t>
+          <t>3187</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1328,7 +1391,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3309</t>
+          <t>3309</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1380,7 +1443,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3310</t>
+          <t>3310</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1432,7 +1495,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3372</t>
+          <t>3372</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1484,7 +1547,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3406</t>
+          <t>3406</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1536,7 +1599,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3407</t>
+          <t>3407</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1588,7 +1651,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3421</t>
+          <t>3421</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1640,7 +1703,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3437</t>
+          <t>3437</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1680,7 +1743,6 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>06/03/2013</t>
@@ -1688,7 +1750,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3482</t>
+          <t>3482</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1740,7 +1802,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3483</t>
+          <t>3483</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1780,7 +1842,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>02/10/2013</t>
@@ -1788,7 +1849,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3560</t>
+          <t>3560</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1840,7 +1901,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3561</t>
+          <t>3561</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1892,7 +1953,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3620</t>
+          <t>3620</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1944,7 +2005,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3623</t>
+          <t>3623</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1996,7 +2057,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3626</t>
+          <t>3626</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2048,7 +2109,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3628</t>
+          <t>3628</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2100,7 +2161,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3632</t>
+          <t>3632</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2152,7 +2213,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3633</t>
+          <t>3633</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2204,7 +2265,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3649</t>
+          <t>3649</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2256,7 +2317,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3650</t>
+          <t>3650</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2308,7 +2369,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3651</t>
+          <t>3651</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2360,7 +2421,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3652</t>
+          <t>3652</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2412,7 +2473,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3705</t>
+          <t>3705</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2464,7 +2525,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3707</t>
+          <t>3707</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2516,7 +2577,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3709</t>
+          <t>3709</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2568,7 +2629,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3711</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2608,7 +2669,6 @@
           <t>42</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>08/01/2015</t>
@@ -2616,7 +2676,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3721</t>
+          <t>3721</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2668,7 +2728,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3722</t>
+          <t>3722</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2720,7 +2780,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3725</t>
+          <t>3725</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2772,7 +2832,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3730</t>
+          <t>3730</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2824,7 +2884,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3754</t>
+          <t>3754</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2876,7 +2936,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3759</t>
+          <t>3759</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2928,7 +2988,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3764</t>
+          <t>3764</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2980,7 +3040,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3773</t>
+          <t>3773</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3032,7 +3092,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3778</t>
+          <t>3778</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3084,7 +3144,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3785</t>
+          <t>3785</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3136,7 +3196,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3843</t>
+          <t>3843</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3188,7 +3248,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3846</t>
+          <t>3846</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3240,7 +3300,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3847</t>
+          <t>3847</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3292,7 +3352,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3849</t>
+          <t>3849</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3344,7 +3404,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3850</t>
+          <t>3850</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3396,7 +3456,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3864</t>
+          <t>3864</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3448,7 +3508,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3867</t>
+          <t>3867</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3500,7 +3560,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3869</t>
+          <t>3869</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3552,7 +3612,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3871</t>
+          <t>3871</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3604,7 +3664,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3873</t>
+          <t>3873</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3644,7 +3704,6 @@
           <t>62</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>04/07/2016</t>
@@ -3652,7 +3711,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3912</t>
+          <t>3912</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3704,7 +3763,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3913</t>
+          <t>3913</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3756,7 +3815,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3915</t>
+          <t>3915</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3808,7 +3867,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3916</t>
+          <t>3916</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3860,7 +3919,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3917</t>
+          <t>3917</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3912,7 +3971,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3918</t>
+          <t>3918</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3964,7 +4023,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3936</t>
+          <t>3936</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4016,7 +4075,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3938</t>
+          <t>3938</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4068,7 +4127,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3941</t>
+          <t>3941</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4120,7 +4179,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3991</t>
+          <t>3991</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4172,7 +4231,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3993</t>
+          <t>3993</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4224,7 +4283,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3994</t>
+          <t>3994</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4276,7 +4335,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3996</t>
+          <t>3996</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4328,7 +4387,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3998</t>
+          <t>3998</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4380,7 +4439,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4006</t>
+          <t>4006</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4432,7 +4491,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4007</t>
+          <t>4007</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4484,7 +4543,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4008</t>
+          <t>4008</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4536,7 +4595,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4009</t>
+          <t>4009</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4576,7 +4635,6 @@
           <t>80</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
           <t>24/03/2017</t>
@@ -4584,7 +4642,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4010</t>
+          <t>4010</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4636,7 +4694,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4040</t>
+          <t>4040</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4688,7 +4746,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4043</t>
+          <t>4043</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4728,7 +4786,6 @@
           <t>83</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
           <t>14/06/2017</t>
@@ -4736,7 +4793,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4046</t>
+          <t>4046</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4788,7 +4845,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4092</t>
+          <t>4092</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4840,7 +4897,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4093</t>
+          <t>4093</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4892,7 +4949,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4097</t>
+          <t>4097</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4932,7 +4989,6 @@
           <t>87</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr">
         <is>
           <t>09/02/2018</t>
@@ -4940,7 +4996,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4129</t>
+          <t>4129</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4992,7 +5048,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4131</t>
+          <t>4131</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5044,7 +5100,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4132</t>
+          <t>4132</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5084,7 +5140,6 @@
           <t>90</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr">
         <is>
           <t>16/02/2018</t>
@@ -5092,7 +5147,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4134</t>
+          <t>4134</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5144,7 +5199,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4136</t>
+          <t>4136</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5196,7 +5251,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4140</t>
+          <t>4140</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5248,7 +5303,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4145</t>
+          <t>4145</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5300,7 +5355,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4147</t>
+          <t>4147</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5352,7 +5407,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4154</t>
+          <t>4154</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5404,7 +5459,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4160</t>
+          <t>4160</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5456,7 +5511,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4163</t>
+          <t>4163</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5508,7 +5563,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4164</t>
+          <t>4164</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5560,7 +5615,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4189</t>
+          <t>4189</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5612,7 +5667,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4190</t>
+          <t>4190</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5652,7 +5707,6 @@
           <t>101</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr">
         <is>
           <t>31/08/2018</t>
@@ -5660,7 +5714,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4192</t>
+          <t>4192</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5712,7 +5766,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4195</t>
+          <t>4195</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5764,7 +5818,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4198</t>
+          <t>4198</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5816,7 +5870,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4200</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5868,7 +5922,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4202</t>
+          <t>4202</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5920,7 +5974,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4203</t>
+          <t>4203</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5960,7 +6014,6 @@
           <t>107</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr">
         <is>
           <t>28/02/2019</t>
@@ -5968,7 +6021,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4257</t>
+          <t>4257</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -6020,7 +6073,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4259</t>
+          <t>4259</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -6072,7 +6125,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4262</t>
+          <t>4262</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -6124,7 +6177,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4265</t>
+          <t>4265</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6176,7 +6229,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4267</t>
+          <t>4267</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6228,7 +6281,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4299</t>
+          <t>4299</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6280,7 +6333,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4306</t>
+          <t>4306</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6332,7 +6385,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4309</t>
+          <t>4309</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6384,7 +6437,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4315</t>
+          <t>4315</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6436,7 +6489,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4323</t>
+          <t>4323</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6488,7 +6541,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4326</t>
+          <t>4326</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6540,7 +6593,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4332</t>
+          <t>4332</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6592,7 +6645,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4335</t>
+          <t>4335</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6644,7 +6697,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4340</t>
+          <t>4340</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6696,7 +6749,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4348</t>
+          <t>4348</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6748,7 +6801,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4377</t>
+          <t>4377</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6800,7 +6853,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4378</t>
+          <t>4378</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6852,7 +6905,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4379</t>
+          <t>4379</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6904,7 +6957,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4444</t>
+          <t>4444</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -6944,7 +6997,6 @@
           <t>126</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr">
         <is>
           <t>24/01/2021</t>
@@ -6952,7 +7004,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4446</t>
+          <t>4446</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -7004,7 +7056,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4448</t>
+          <t>4448</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -7056,7 +7108,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4537</t>
+          <t>4537</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -7108,7 +7160,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4538</t>
+          <t>4538</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -7148,7 +7200,6 @@
           <t>130</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr">
         <is>
           <t>28/02/2022</t>
@@ -7156,7 +7207,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4539</t>
+          <t>4539</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -7208,7 +7259,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4582</t>
+          <t>4582</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -7248,7 +7299,6 @@
           <t>132</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr">
         <is>
           <t>06/06/2022</t>
@@ -7256,7 +7306,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4585</t>
+          <t>4585</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -7308,7 +7358,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4588</t>
+          <t>4588</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -7360,7 +7410,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4671</t>
+          <t>4671</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -7412,7 +7462,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4674</t>
+          <t>4674</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -7464,7 +7514,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4675</t>
+          <t>4675</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -7503,7 +7553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7525,7 +7575,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -7562,7 +7612,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2964</t>
+          <t>2964</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -7599,7 +7649,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3007</t>
+          <t>3007</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -7636,7 +7686,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3008</t>
+          <t>3008</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -7673,7 +7723,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3087</t>
+          <t>3087</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -7710,7 +7760,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3089</t>
+          <t>3089</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -7747,7 +7797,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3135</t>
+          <t>3135</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -7784,7 +7834,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3138</t>
+          <t>3138</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -7821,7 +7871,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3142</t>
+          <t>3142</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -7858,7 +7908,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3147</t>
+          <t>3147</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -7895,7 +7945,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3149</t>
+          <t>3149</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -7932,7 +7982,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3153</t>
+          <t>3153</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -7969,7 +8019,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3164</t>
+          <t>3164</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -8006,7 +8056,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3183</t>
+          <t>3183</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -8043,7 +8093,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3185</t>
+          <t>3185</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -8080,7 +8130,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3187</t>
+          <t>3187</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -8117,7 +8167,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3309</t>
+          <t>3309</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -8154,7 +8204,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3310</t>
+          <t>3310</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -8191,7 +8241,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3372</t>
+          <t>3372</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -8228,7 +8278,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3406</t>
+          <t>3406</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -8265,7 +8315,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3407</t>
+          <t>3407</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -8302,7 +8352,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3421</t>
+          <t>3421</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -8339,7 +8389,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3437</t>
+          <t>3437</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -8376,7 +8426,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3482</t>
+          <t>3482</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -8413,7 +8463,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3483</t>
+          <t>3483</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -8450,7 +8500,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3560</t>
+          <t>3560</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -8487,7 +8537,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3561</t>
+          <t>3561</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -8524,7 +8574,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3620</t>
+          <t>3620</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -8561,7 +8611,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3623</t>
+          <t>3623</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -8598,7 +8648,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3626</t>
+          <t>3626</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -8635,7 +8685,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3628</t>
+          <t>3628</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -8672,7 +8722,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3632</t>
+          <t>3632</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -8709,7 +8759,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3633</t>
+          <t>3633</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -8746,7 +8796,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3649</t>
+          <t>3649</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -8783,7 +8833,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3650</t>
+          <t>3650</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -8820,7 +8870,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3651</t>
+          <t>3651</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -8857,7 +8907,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3652</t>
+          <t>3652</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -8894,7 +8944,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3705</t>
+          <t>3705</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -8931,7 +8981,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3707</t>
+          <t>3707</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -8968,7 +9018,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3709</t>
+          <t>3709</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -9005,7 +9055,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3711</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -9042,7 +9092,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3721</t>
+          <t>3721</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -9079,7 +9129,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3722</t>
+          <t>3722</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -9116,7 +9166,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3725</t>
+          <t>3725</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -9153,7 +9203,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3730</t>
+          <t>3730</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -9190,7 +9240,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3754</t>
+          <t>3754</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -9227,7 +9277,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3759</t>
+          <t>3759</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -9264,7 +9314,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3764</t>
+          <t>3764</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -9301,7 +9351,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3773</t>
+          <t>3773</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -9338,7 +9388,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3778</t>
+          <t>3778</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -9375,7 +9425,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3785</t>
+          <t>3785</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -9412,7 +9462,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3843</t>
+          <t>3843</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -9449,7 +9499,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3846</t>
+          <t>3846</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -9486,7 +9536,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3847</t>
+          <t>3847</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -9523,7 +9573,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3849</t>
+          <t>3849</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -9560,7 +9610,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3850</t>
+          <t>3850</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -9597,7 +9647,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3864</t>
+          <t>3864</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -9634,7 +9684,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3867</t>
+          <t>3867</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -9671,7 +9721,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3869</t>
+          <t>3869</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -9708,7 +9758,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3871</t>
+          <t>3871</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -9745,7 +9795,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3873</t>
+          <t>3873</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -9782,7 +9832,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3913</t>
+          <t>3913</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -9819,7 +9869,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3915</t>
+          <t>3915</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -9856,7 +9906,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3916</t>
+          <t>3916</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -9893,7 +9943,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3917</t>
+          <t>3917</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -9930,7 +9980,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3918</t>
+          <t>3918</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -9967,7 +10017,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3936</t>
+          <t>3936</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -10004,7 +10054,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3938</t>
+          <t>3938</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -10041,7 +10091,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3941</t>
+          <t>3941</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -10078,7 +10128,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3991</t>
+          <t>3991</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -10115,7 +10165,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3993</t>
+          <t>3993</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -10152,7 +10202,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3994</t>
+          <t>3994</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -10189,7 +10239,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3996</t>
+          <t>3996</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -10226,7 +10276,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3998</t>
+          <t>3998</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -10263,7 +10313,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4006</t>
+          <t>4006</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -10300,7 +10350,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4007</t>
+          <t>4007</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -10337,7 +10387,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4008</t>
+          <t>4008</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -10374,7 +10424,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4009</t>
+          <t>4009</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -10411,7 +10461,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4010</t>
+          <t>4010</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -10448,7 +10498,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4040</t>
+          <t>4040</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -10485,7 +10535,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4043</t>
+          <t>4043</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -10522,7 +10572,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4092</t>
+          <t>4092</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -10559,7 +10609,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4093</t>
+          <t>4093</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -10596,7 +10646,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4097</t>
+          <t>4097</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -10633,7 +10683,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4129</t>
+          <t>4129</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -10670,7 +10720,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4131</t>
+          <t>4131</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -10707,7 +10757,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4132</t>
+          <t>4132</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -10744,7 +10794,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4134</t>
+          <t>4134</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -10781,7 +10831,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4136</t>
+          <t>4136</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -10818,7 +10868,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4140</t>
+          <t>4140</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -10855,7 +10905,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4145</t>
+          <t>4145</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -10892,7 +10942,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4147</t>
+          <t>4147</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -10929,7 +10979,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4154</t>
+          <t>4154</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -10966,7 +11016,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4160</t>
+          <t>4160</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -11003,7 +11053,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4163</t>
+          <t>4163</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -11040,7 +11090,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4164</t>
+          <t>4164</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -11077,7 +11127,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4189</t>
+          <t>4189</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -11114,7 +11164,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4190</t>
+          <t>4190</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -11151,7 +11201,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4192</t>
+          <t>4192</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -11188,7 +11238,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4195</t>
+          <t>4195</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -11225,7 +11275,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4198</t>
+          <t>4198</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -11262,7 +11312,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4200</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -11299,7 +11349,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4202</t>
+          <t>4202</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -11336,7 +11386,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4203</t>
+          <t>4203</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -11373,7 +11423,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4257</t>
+          <t>4257</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -11410,7 +11460,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4262</t>
+          <t>4262</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -11447,7 +11497,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4265</t>
+          <t>4265</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -11484,7 +11534,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4267</t>
+          <t>4267</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -11521,7 +11571,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4299</t>
+          <t>4299</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -11558,7 +11608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4306</t>
+          <t>4306</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -11595,7 +11645,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4309</t>
+          <t>4309</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -11632,7 +11682,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4315</t>
+          <t>4315</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -11669,7 +11719,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4323</t>
+          <t>4323</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -11706,7 +11756,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4326</t>
+          <t>4326</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -11743,7 +11793,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4332</t>
+          <t>4332</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -11780,7 +11830,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4335</t>
+          <t>4335</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -11817,7 +11867,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4340</t>
+          <t>4340</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -11854,7 +11904,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4348</t>
+          <t>4348</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -11891,7 +11941,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4377</t>
+          <t>4377</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -11928,7 +11978,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4378</t>
+          <t>4378</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -11965,7 +12015,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4379</t>
+          <t>4379</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -12002,7 +12052,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4444</t>
+          <t>4444</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -12039,7 +12089,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4446</t>
+          <t>4446</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -12076,7 +12126,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4448</t>
+          <t>4448</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -12113,7 +12163,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4537</t>
+          <t>4537</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -12150,7 +12200,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4538</t>
+          <t>4538</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -12187,7 +12237,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4539</t>
+          <t>4539</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -12224,7 +12274,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4582</t>
+          <t>4582</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -12261,7 +12311,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4585</t>
+          <t>4585</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -12298,7 +12348,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4588</t>
+          <t>4588</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -12335,7 +12385,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4671</t>
+          <t>4671</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -12372,7 +12422,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4675</t>
+          <t>4675</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -12398,6 +12448,547 @@
       <c r="G132" t="inlineStr">
         <is>
           <t>2/56</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4326</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4332</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4335</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4340</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>7.05%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4348</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.69%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4377</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.52%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4378</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>16.00%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4379</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.08%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4444</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1.05%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4446</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4448</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>12.03%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4537</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>9.30%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4538</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4539</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4582</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3.62%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4585</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4588</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>24.82%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4671</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4674</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>7</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>17.98%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4675</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/AFG/PlayerPerformance_3665.xlsx
+++ b/bin/sheets/main_db/teams/AFG/PlayerPerformance_3665.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12508,10 +12509,6 @@
           <t>4326</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -12524,457 +12521,758 @@
           <t>4332</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4335</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4340</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>7.05%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4348</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.69%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4377</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.52%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4378</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>16.00%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4379</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.08%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4444</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1.05%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4446</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4448</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>12.03%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4537</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>9.30%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4538</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4539</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4582</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3.62%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4585</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>6</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4588</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>24.82%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4671</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4674</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>7</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>17.98%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4675</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4323</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4326</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4335</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4332</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4340</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
+          <t>4335</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>7.05%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4348</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
+          <t>4340</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0.69%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4377</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>7</v>
+          <t>4348</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0.52%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4378</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+          <t>4377</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>16.00%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4379</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
+          <t>4378</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>20.08%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4444</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
+          <t>4379</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.05%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4446</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4444</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4448</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>6</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>12.03%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4446</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4537</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>6</v>
+          <t>4448</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>9.30%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4538</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
+          <t>4537</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4539</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>6</v>
-      </c>
+          <t>4538</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4582</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
+          <t>4539</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>3.62%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4585</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>6</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4582</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4588</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>6</v>
+          <t>4585</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>24.82%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4671</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4588</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4674</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>7</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>17.98%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4671</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -12984,13 +13282,6 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/AFG/PlayerPerformance_3665.xlsx
+++ b/bin/sheets/main_db/teams/AFG/PlayerPerformance_3665.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -974,6 +972,7 @@
           <t>9</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>07/07/2010</t>
@@ -1125,6 +1124,7 @@
           <t>12</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>16/08/2010</t>
@@ -1744,6 +1744,7 @@
           <t>24</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>06/03/2013</t>
@@ -1843,6 +1844,7 @@
           <t>26</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>02/10/2013</t>
@@ -2670,6 +2672,7 @@
           <t>42</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>08/01/2015</t>
@@ -3705,6 +3708,7 @@
           <t>62</t>
         </is>
       </c>
+      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>04/07/2016</t>
@@ -4636,6 +4640,7 @@
           <t>80</t>
         </is>
       </c>
+      <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
           <t>24/03/2017</t>
@@ -4787,6 +4792,7 @@
           <t>83</t>
         </is>
       </c>
+      <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
           <t>14/06/2017</t>
@@ -4990,6 +4996,7 @@
           <t>87</t>
         </is>
       </c>
+      <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr">
         <is>
           <t>09/02/2018</t>
@@ -5141,6 +5148,7 @@
           <t>90</t>
         </is>
       </c>
+      <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr">
         <is>
           <t>16/02/2018</t>
@@ -5708,6 +5716,7 @@
           <t>101</t>
         </is>
       </c>
+      <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr">
         <is>
           <t>31/08/2018</t>
@@ -6015,6 +6024,7 @@
           <t>107</t>
         </is>
       </c>
+      <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr">
         <is>
           <t>28/02/2019</t>
@@ -6998,6 +7008,7 @@
           <t>126</t>
         </is>
       </c>
+      <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr">
         <is>
           <t>24/01/2021</t>
@@ -7201,6 +7212,7 @@
           <t>130</t>
         </is>
       </c>
+      <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr">
         <is>
           <t>28/02/2022</t>
@@ -7300,6 +7312,7 @@
           <t>132</t>
         </is>
       </c>
+      <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr">
         <is>
           <t>06/06/2022</t>
@@ -12455,835 +12468,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4326</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4332</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4335</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4340</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>7.05%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4348</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0.69%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4377</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0.52%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4378</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>16.00%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4379</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>20.08%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4444</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.05%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4446</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4448</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>6</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>12.03%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4537</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>6</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>9.30%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4538</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4539</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>6</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4582</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>3.62%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4585</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>6</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4588</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>6</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>24.82%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4671</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4674</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>7</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>17.98%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4675</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4323</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4326</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4332</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4335</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4340</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4348</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4377</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4378</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4379</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4444</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4446</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4448</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4537</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4538</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4539</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4582</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4585</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4588</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4671</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4675</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/bin/sheets/main_db/teams/AFG/PlayerPerformance_3665.xlsx
+++ b/bin/sheets/main_db/teams/AFG/PlayerPerformance_3665.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -972,7 +974,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>07/07/2010</t>
@@ -1124,7 +1125,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>16/08/2010</t>
@@ -1744,7 +1744,6 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>06/03/2013</t>
@@ -1844,7 +1843,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>02/10/2013</t>
@@ -2672,7 +2670,6 @@
           <t>42</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>08/01/2015</t>
@@ -3708,7 +3705,6 @@
           <t>62</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>04/07/2016</t>
@@ -4640,7 +4636,6 @@
           <t>80</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
           <t>24/03/2017</t>
@@ -4792,7 +4787,6 @@
           <t>83</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
           <t>14/06/2017</t>
@@ -4996,7 +4990,6 @@
           <t>87</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr">
         <is>
           <t>09/02/2018</t>
@@ -5148,7 +5141,6 @@
           <t>90</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr">
         <is>
           <t>16/02/2018</t>
@@ -5716,7 +5708,6 @@
           <t>101</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr">
         <is>
           <t>31/08/2018</t>
@@ -6024,7 +6015,6 @@
           <t>107</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr">
         <is>
           <t>28/02/2019</t>
@@ -7008,7 +6998,6 @@
           <t>126</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr">
         <is>
           <t>24/01/2021</t>
@@ -7212,7 +7201,6 @@
           <t>130</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr">
         <is>
           <t>28/02/2022</t>
@@ -7312,7 +7300,6 @@
           <t>132</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr">
         <is>
           <t>06/06/2022</t>
@@ -12468,4 +12455,5036 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F137"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2964</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3007</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>4.44%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3008</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3087</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3089</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>35.03%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3135</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3138</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>11.62%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3142</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.09%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3147</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3149</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3153</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2.74%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3164</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3166</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3183</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3185</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3187</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>31.91%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3309</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3310</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>31.33%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3372</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>18.97%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3406</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>26.80%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>6</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1.16%</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3421</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>6</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1.92%</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3437</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3482</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3483</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>5</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>19.54%</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3560</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>6</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>3561</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>4</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>47.92%</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3620</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>3623</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>6</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2.76%</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>3626</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>6</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>29.84%</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>3628</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>6</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>3.77%</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>3632</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>3633</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>6</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>25.50%</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>3649</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>3650</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>6</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>8.59%</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>3651</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>3652</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>6</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>14.29%</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>3705</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>4</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>11.29%</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>3707</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>3709</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>3711</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>5</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>10.09%</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>3721</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>3722</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>6</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1.11%</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>3725</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>6</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>3730</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>3754</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>6</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>27.16%</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>3759</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>5</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>9.05%</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>3764</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>5</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>0.47%</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>3773</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>6</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1.41%</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>3778</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>3785</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>7</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>14.41%</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>3843</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>6</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>3846</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>3</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>42.80%</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>3847</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>3849</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>3850</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>3</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>21.63%</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>3864</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>3</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>12.98%</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>3867</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>3</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>12.99%</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>3869</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>3</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>3871</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>5</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>6.83%</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>3873</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>3912</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>3913</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>7</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>7.87%</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>3915</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>7</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2.00%</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>3916</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>3917</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>7</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>21.83%</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>3918</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>6</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>9.88%</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>3936</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>5</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>11.63%</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>3938</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>3941</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>3991</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>3993</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>5</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>13.87%</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>3994</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>7</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>8.73%</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>3996</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>8</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>15.32%</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>3998</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>7</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>18.97%</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>4006</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>7</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>11.64%</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>4007</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>6</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>4.14%</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>4009</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>7</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>18.64%</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>4010</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>10</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>4040</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>6</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>12.74%</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>4043</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>6</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>9.63%</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>4046</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>4092</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>6</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>4093</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>6</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>13.18%</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>4097</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>6</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>0.56%</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>4129</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>10</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>4131</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>7</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>17.32%</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>4132</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>4134</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>4</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>4136</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>7</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>3.73%</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>4140</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>5</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>36.08%</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>4145</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>5</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>26.29%</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>4147</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>4154</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>4160</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>6</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>3.37%</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>4163</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>5</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>5.63%</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>4164</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>5</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>13.11%</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>4189</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>7</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>0.44%</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>4190</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>7</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>7.14%</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>4192</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>8</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>4195</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>6</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>6.02%</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>4198</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>7</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>3.92%</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>4200</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>6</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>2.72%</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>4202</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>6</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>15.45%</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>4203</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>4257</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>8</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>4259</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>4262</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>4265</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>8</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>28.70%</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>4267</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>6</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>18.52%</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>4299</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>6</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>19.57%</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>4306</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>5</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>3.38%</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>4309</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>5</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>7.24%</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>4315</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>6</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>5.23%</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>4323</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>6</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>0.80%</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>4326</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>4332</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>4335</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>5</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>4340</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>6</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>7.05%</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>4348</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>6</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>0.69%</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>4377</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>7</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>0.52%</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>4378</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>7</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>16.00%</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>4379</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>7</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>20.08%</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>4444</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>5</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>1.05%</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>4446</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>7</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>4448</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>6</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>12.03%</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>4537</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>6</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>9.30%</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>4538</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>4539</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>6</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>4582</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>5</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>3.62%</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>4585</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>6</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>4588</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>6</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>24.82%</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>4671</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>4674</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>7</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>17.98%</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>4675</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C132"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2964</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3007</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3008</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3087</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3089</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3135</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3138</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3142</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3147</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3149</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3153</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3164</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3183</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3185</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3187</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3309</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3310</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3372</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3406</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3421</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3437</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3482</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3483</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3560</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3561</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>3620</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3623</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>3626</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>3628</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>3632</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>3633</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>3649</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>3650</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>3651</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>3652</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>3705</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>3707</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>3709</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>3711</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>3721</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>3722</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>3725</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>3730</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>3754</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>3759</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>3764</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>3773</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>3778</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>3785</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>3843</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>3846</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>3847</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>3849</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>3850</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>3864</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>3867</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>3869</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>3871</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>3873</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>3913</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>3915</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>3916</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>3917</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>3918</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>3936</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>3938</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>3941</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>3991</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>3993</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>3994</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>3996</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>3998</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>4006</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>4007</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>4009</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>4010</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>4040</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>4043</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>4092</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>4093</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>4097</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>4129</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>4131</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>4132</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>4134</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>4136</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>4140</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>4145</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>4147</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>4154</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>4160</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>4163</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>4164</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>4189</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>4190</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>4192</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>4195</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>4198</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>4200</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>4202</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>4203</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>4257</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>4262</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>4265</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>4267</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>4299</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>4306</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>4309</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>4315</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>4323</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>4326</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>4332</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>4335</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>4340</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>4348</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>4377</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>4378</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>4379</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>4444</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>4446</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>4448</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>4537</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>4538</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>4539</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>4582</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>4585</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>4588</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>4671</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>4675</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>